--- a/biology/Botanique/Sambong/Sambong.xlsx
+++ b/biology/Botanique/Sambong/Sambong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blumea balsamifera
 Le sambong (Blumea balsamifera) est une espèce de plante à fleurs de la famille  des Asteraceae utilisée en médecine traditionnelle.
@@ -513,7 +525,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les zones tropicales et subtropicales d'Asie, notamment le sous-continent indien et l'Asie du Sud. C'est une mauvaise herbe qui pousse au bord des chemins et dans les prairies.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à tige à poils doux, demi-boisé, à forte odeur aromatique de camphre, de 1 à 4 mètres de haut. Les feuilles sont simples, alternes, elliptiques, de 7 à 20 cm de long à bord denté. Les fleurs jaunes sont disséminées le long de panicules très ramifiés. Elles sont de deux types : les périphériques, les plus nombreuses, minuscules, à corolle tubulaire, les fleurs centrales, plus grandes, en petit nombre, en clochette. Le fruit est un akène poilu au sommet.
 </t>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sambong est utilisé dans les lithiases urinaires et les rhumes.
 </t>
@@ -606,9 +624,11 @@
           <t>Croyances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le folklore thaïlandais le sambong est appelé Naat (หนาด) et est réputé pour éloigner les esprits[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le folklore thaïlandais le sambong est appelé Naat (หนาด) et est réputé pour éloigner les esprits.
 </t>
         </is>
       </c>
